--- a/Output_Optimised_Q2.xlsx
+++ b/Output_Optimised_Q2.xlsx
@@ -43,7 +43,7 @@
     <t>Estimated Cost</t>
   </si>
   <si>
-    <t>Average Cost per Application</t>
+    <t>Cost per Application</t>
   </si>
   <si>
     <t>Estimated Cost in mn $</t>
